--- a/biology/Médecine/Adénocarcinome_pulmonaire/Adénocarcinome_pulmonaire.xlsx
+++ b/biology/Médecine/Adénocarcinome_pulmonaire/Adénocarcinome_pulmonaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nocarcinome_pulmonaire</t>
+          <t>Adénocarcinome_pulmonaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'adénocarcinome pulmonaire est une tumeur maligne de différenciation glandulaire localisée au poumon.
 L'adénocarcinome pulmonaire est responsable de 29,4 % des cancers du poumon. Il a généralement son origine dans le tissu pulmonaire périphérique. La plupart des cas d'adénocarcinome sont associés au tabagisme ; cependant, parmi les personnes qui n'ont jamais fumé (« jamais-fumeurs »), l'adénocarcinome est la forme la plus fréquente de cancer du poumon.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nocarcinome_pulmonaire</t>
+          <t>Adénocarcinome_pulmonaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'ancienne notion de carcinome bronchioloalvéolaire (CBA) pouvait regrouper[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'ancienne notion de carcinome bronchioloalvéolaire (CBA) pouvait regrouper :
 des formes à petites cellules (20 %) ;
 les adénocarcinomes (50 %) dont on distingue selon les cellules proliférantes :
 les adénocarcinomes mucineux causés par les cellules mucineuses (80 % des cas), plutôt diffus ;
@@ -555,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ad%C3%A9nocarcinome_pulmonaire</t>
+          <t>Adénocarcinome_pulmonaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -575,8 +589,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ovins
-Les ovins peuvent eux aussi souffrir d'adénocarcinomes pulmonaires, mais ceux-ci sont généralement induits par un rétrovirus, le Jaagsiekte Sheep RetroVirus (JSRV)[2]. La brebis Dolly a notamment souffert d'un adénocarcinome pulmonaire[2]. 
+          <t>Ovins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ovins peuvent eux aussi souffrir d'adénocarcinomes pulmonaires, mais ceux-ci sont généralement induits par un rétrovirus, le Jaagsiekte Sheep RetroVirus (JSRV). La brebis Dolly a notamment souffert d'un adénocarcinome pulmonaire. 
 </t>
         </is>
       </c>
